--- a/AnyLogic_models/8_states_24/results.xlsx
+++ b/AnyLogic_models/8_states_24/results.xlsx
@@ -128,10 +128,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="B2" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -160,10 +160,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="B3" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -192,10 +192,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="B4" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -224,10 +224,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="B5" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -256,10 +256,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="B6" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -288,10 +288,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="B7" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999931507</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -320,10 +320,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999999999953787</v>
       </c>
       <c r="B8" t="n">
-        <v>4.999999999942922</v>
+        <v>2.998614266343389</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -352,19 +352,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999779046196656</v>
       </c>
       <c r="B9" t="n">
-        <v>4.999999999942922</v>
+        <v>2.998606056615761</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -384,19 +384,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.999999999942922</v>
+        <v>2.999779046196656</v>
       </c>
       <c r="B10" t="n">
-        <v>4.999999999942922</v>
+        <v>2.998606056615761</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -416,19 +416,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.999999999942922</v>
+        <v>2.9990994460980613</v>
       </c>
       <c r="B11" t="n">
-        <v>4.999999999942922</v>
+        <v>2.997961764702236</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>7.904166666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -448,19 +448,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.999999999942922</v>
+        <v>2.997995492473562</v>
       </c>
       <c r="B12" t="n">
-        <v>4.999999999942922</v>
+        <v>2.997013951149921</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>23.166666666666664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>31.070833333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -480,19 +480,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.999999999942922</v>
+        <v>2.997995492473562</v>
       </c>
       <c r="B13" t="n">
-        <v>4.999999999942922</v>
+        <v>2.997013951149921</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>31.070833333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -512,19 +512,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.999852536394022</v>
+        <v>2.9972572676551597</v>
       </c>
       <c r="B14" t="n">
-        <v>4.999475376391458</v>
+        <v>2.9963306076253207</v>
       </c>
       <c r="C14" t="n">
-        <v>6.666666666666667</v>
+        <v>29.383333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>6.666666666666667</v>
+        <v>29.383333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -533,7 +533,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -544,19 +544,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.999716213159019</v>
+        <v>2.995069054090729</v>
       </c>
       <c r="B15" t="n">
-        <v>4.999414504169091</v>
+        <v>2.994239445692762</v>
       </c>
       <c r="C15" t="n">
-        <v>22.0</v>
+        <v>25.749999999999996</v>
       </c>
       <c r="D15" t="n">
-        <v>28.666666666666668</v>
+        <v>55.133333333333326</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
@@ -565,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
@@ -576,19 +576,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.999716213159019</v>
+        <v>2.9946703625353157</v>
       </c>
       <c r="B16" t="n">
-        <v>4.999414504169091</v>
+        <v>2.993899557805563</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>126.66666666666666</v>
       </c>
       <c r="D16" t="n">
-        <v>28.666666666666668</v>
+        <v>181.79999999999998</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -597,7 +597,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -608,19 +608,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.999716213159019</v>
+        <v>2.994380735580758</v>
       </c>
       <c r="B17" t="n">
-        <v>4.999414504169091</v>
+        <v>2.993703635128097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="D17" t="n">
-        <v>28.666666666666668</v>
+        <v>192.79999999999998</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -640,19 +640,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.999471535440896</v>
+        <v>2.993946751403536</v>
       </c>
       <c r="B18" t="n">
-        <v>4.999206587412129</v>
+        <v>2.9933202403525616</v>
       </c>
       <c r="C18" t="n">
-        <v>1.2374999999999998</v>
+        <v>38.0</v>
       </c>
       <c r="D18" t="n">
-        <v>29.90416666666667</v>
+        <v>230.79999999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -672,19 +672,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.999471535440896</v>
+        <v>2.993332152563398</v>
       </c>
       <c r="B19" t="n">
-        <v>4.999206587412129</v>
+        <v>2.9927270721564927</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>13.166666666666668</v>
       </c>
       <c r="D19" t="n">
-        <v>29.90416666666667</v>
+        <v>243.96666666666664</v>
       </c>
       <c r="E19" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -704,19 +704,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.999240266803033</v>
+        <v>2.993332152563398</v>
       </c>
       <c r="B20" t="n">
-        <v>4.998994953066512</v>
+        <v>2.9927270721564927</v>
       </c>
       <c r="C20" t="n">
-        <v>4.5</v>
+        <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.40416666666667</v>
+        <v>243.96666666666664</v>
       </c>
       <c r="E20" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -736,19 +736,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.999240266803033</v>
+        <v>2.9934495409644875</v>
       </c>
       <c r="B21" t="n">
-        <v>4.998994953066512</v>
+        <v>2.992874765808806</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="D21" t="n">
-        <v>34.40416666666667</v>
+        <v>260.63333333333327</v>
       </c>
       <c r="E21" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -768,19 +768,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.999240266803033</v>
+        <v>2.992842767448163</v>
       </c>
       <c r="B22" t="n">
-        <v>4.998994953066512</v>
+        <v>2.9922995214619013</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>7.7375</v>
       </c>
       <c r="D22" t="n">
-        <v>34.40416666666667</v>
+        <v>268.3708333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -800,19 +800,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.999240266803033</v>
+        <v>2.992842767448163</v>
       </c>
       <c r="B23" t="n">
-        <v>4.998994953066512</v>
+        <v>2.9922995214619013</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.40416666666667</v>
+        <v>268.3708333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -832,19 +832,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.999240266803033</v>
+        <v>2.992783755092699</v>
       </c>
       <c r="B24" t="n">
-        <v>4.998994953066512</v>
+        <v>2.9922641795875875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>17.904166666666665</v>
       </c>
       <c r="D24" t="n">
-        <v>34.40416666666667</v>
+        <v>286.2749999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -864,19 +864,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.999145272021489</v>
+        <v>2.9925968930245235</v>
       </c>
       <c r="B25" t="n">
-        <v>4.998910444480617</v>
+        <v>2.9921118843977204</v>
       </c>
       <c r="C25" t="n">
-        <v>4.0</v>
+        <v>12.404166666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>38.40416666666667</v>
+        <v>298.6791666666666</v>
       </c>
       <c r="E25" t="n">
-        <v>4.0</v>
+        <v>23.0</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
@@ -896,19 +896,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.999145272023392</v>
+        <v>2.99282223256645</v>
       </c>
       <c r="B26" t="n">
-        <v>4.998891421140962</v>
+        <v>2.9923569412841613</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E26" t="n">
-        <v>4.0</v>
+        <v>24.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -928,19 +928,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.9992584431365765</v>
+        <v>2.992736570519331</v>
       </c>
       <c r="B27" t="n">
-        <v>4.999029175355759</v>
+        <v>2.992272917654081</v>
       </c>
       <c r="C27" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D27" t="n">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="E27" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -960,19 +960,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.9992584431365765</v>
+        <v>2.992235960410046</v>
       </c>
       <c r="B28" t="n">
-        <v>4.999029175355759</v>
+        <v>2.9918094741771815</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>150.0</v>
       </c>
       <c r="D28" t="n">
-        <v>4.0</v>
+        <v>170.0</v>
       </c>
       <c r="E28" t="n">
-        <v>5.0</v>
+        <v>28.0</v>
       </c>
       <c r="F28" t="n">
         <v>0.0</v>
@@ -992,19 +992,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.9992584431365765</v>
+        <v>2.992235960410046</v>
       </c>
       <c r="B29" t="n">
-        <v>4.999029175355759</v>
+        <v>2.9918094741771815</v>
       </c>
       <c r="C29" t="n">
         <v>0.0</v>
       </c>
       <c r="D29" t="n">
-        <v>4.0</v>
+        <v>170.0</v>
       </c>
       <c r="E29" t="n">
-        <v>5.0</v>
+        <v>28.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -1024,19 +1024,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.999265026294327</v>
+        <v>2.9924404600705854</v>
       </c>
       <c r="B30" t="n">
-        <v>4.998989473607605</v>
+        <v>2.992042520483118</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>22.716666666666665</v>
       </c>
       <c r="D30" t="n">
-        <v>4.0</v>
+        <v>192.71666666666667</v>
       </c>
       <c r="E30" t="n">
-        <v>5.0</v>
+        <v>30.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -1056,19 +1056,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.998996622211259</v>
+        <v>2.9924194044554566</v>
       </c>
       <c r="B31" t="n">
-        <v>4.9987364365086036</v>
+        <v>2.992041680645688</v>
       </c>
       <c r="C31" t="n">
+        <v>136.66666666666666</v>
+      </c>
+      <c r="D31" t="n">
+        <v>329.3833333333333</v>
+      </c>
+      <c r="E31" t="n">
         <v>32.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>7.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -1088,19 +1088,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.999076792811064</v>
+        <v>2.9924194044554566</v>
       </c>
       <c r="B32" t="n">
-        <v>4.998857916417216</v>
+        <v>2.992041680645688</v>
       </c>
       <c r="C32" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" t="n">
-        <v>58.0</v>
+        <v>329.3833333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>8.0</v>
+        <v>32.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -1120,19 +1120,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.999076792811064</v>
+        <v>2.9922538742363165</v>
       </c>
       <c r="B33" t="n">
-        <v>4.998857916417216</v>
+        <v>2.991887688218326</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0</v>
+        <v>6.5</v>
       </c>
       <c r="D33" t="n">
-        <v>58.0</v>
+        <v>335.8833333333333</v>
       </c>
       <c r="E33" t="n">
-        <v>8.0</v>
+        <v>33.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -1152,19 +1152,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.999076792811064</v>
+        <v>2.9922538742363165</v>
       </c>
       <c r="B34" t="n">
-        <v>4.998857916417216</v>
+        <v>2.991887688218326</v>
       </c>
       <c r="C34" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" t="n">
-        <v>58.0</v>
+        <v>335.8833333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>8.0</v>
+        <v>33.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -1184,19 +1184,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.999076792811064</v>
+        <v>2.992233261478644</v>
       </c>
       <c r="B35" t="n">
-        <v>4.998857916417216</v>
+        <v>2.9918762604781852</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="D35" t="n">
-        <v>58.0</v>
+        <v>337.12083333333334</v>
       </c>
       <c r="E35" t="n">
-        <v>8.0</v>
+        <v>34.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -1216,19 +1216,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.999076792811064</v>
+        <v>2.9915898878118155</v>
       </c>
       <c r="B36" t="n">
-        <v>4.998857916417216</v>
+        <v>2.9912410188986143</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>26.383333333333333</v>
       </c>
       <c r="D36" t="n">
-        <v>58.0</v>
+        <v>363.50416666666666</v>
       </c>
       <c r="E36" t="n">
-        <v>8.0</v>
+        <v>37.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -1237,7 +1237,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -1248,19 +1248,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.999076792811064</v>
+        <v>2.9914933862468196</v>
       </c>
       <c r="B37" t="n">
-        <v>4.998857916417216</v>
+        <v>2.991156129079322</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0</v>
+        <v>143.33333333333331</v>
       </c>
       <c r="D37" t="n">
-        <v>58.0</v>
+        <v>506.8375</v>
       </c>
       <c r="E37" t="n">
-        <v>8.0</v>
+        <v>39.0</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -1269,7 +1269,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -1280,19 +1280,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.999076792811645</v>
+        <v>2.9910447308805073</v>
       </c>
       <c r="B38" t="n">
-        <v>4.9988372928869325</v>
+        <v>2.990720426782733</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>139.83333333333331</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0</v>
+        <v>139.83333333333331</v>
       </c>
       <c r="E38" t="n">
-        <v>8.0</v>
+        <v>42.0</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -1301,7 +1301,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -1312,19 +1312,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.999076792811645</v>
+        <v>2.9905285920102442</v>
       </c>
       <c r="B39" t="n">
-        <v>4.9988372928869325</v>
+        <v>2.990208820268493</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>133.16666666666666</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0</v>
+        <v>273.0</v>
       </c>
       <c r="E39" t="n">
-        <v>8.0</v>
+        <v>44.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -1333,7 +1333,7 @@
         <v>0.0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -1344,19 +1344,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.999076792811645</v>
+        <v>2.9896702385448086</v>
       </c>
       <c r="B40" t="n">
-        <v>4.9988372928869325</v>
+        <v>2.9893560624124946</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>301.33333333333337</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>574.3333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>8.0</v>
+        <v>47.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -1365,7 +1365,7 @@
         <v>0.0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -1376,19 +1376,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.999004712342176</v>
+        <v>2.989461101514231</v>
       </c>
       <c r="B41" t="n">
-        <v>4.9987768918314694</v>
+        <v>2.9891585148728628</v>
       </c>
       <c r="C41" t="n">
-        <v>1.2374999999999998</v>
+        <v>50.099999999999994</v>
       </c>
       <c r="D41" t="n">
-        <v>1.2374999999999998</v>
+        <v>624.4333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>9.0</v>
+        <v>50.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -1397,7 +1397,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -1408,19 +1408,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.999004712342176</v>
+        <v>2.989709980348295</v>
       </c>
       <c r="B42" t="n">
-        <v>4.9987768918314694</v>
+        <v>2.9894250037605823</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>28.5</v>
       </c>
       <c r="D42" t="n">
-        <v>1.2374999999999998</v>
+        <v>652.9333333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>9.0</v>
+        <v>52.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -1429,7 +1429,7 @@
         <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -1440,19 +1440,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.999004712342176</v>
+        <v>2.989708261803963</v>
       </c>
       <c r="B43" t="n">
-        <v>4.9987768918314694</v>
+        <v>2.9894290088916877</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.2374999999999998</v>
+        <v>674.9333333333333</v>
       </c>
       <c r="E43" t="n">
-        <v>9.0</v>
+        <v>53.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -1461,7 +1461,7 @@
         <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -1472,19 +1472,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4.999004712342176</v>
+        <v>2.989726998218306</v>
       </c>
       <c r="B44" t="n">
-        <v>4.9987768918314694</v>
+        <v>2.989449953473131</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.2374999999999998</v>
+        <v>678.9333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>9.0</v>
+        <v>54.0</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -1493,7 +1493,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
@@ -1504,19 +1504,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.998877056199994</v>
+        <v>2.9895004821504774</v>
       </c>
       <c r="B45" t="n">
-        <v>4.998669378886947</v>
+        <v>2.989224962438131</v>
       </c>
       <c r="C45" t="n">
-        <v>22.0</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="D45" t="n">
-        <v>23.2375</v>
+        <v>742.2666666666665</v>
       </c>
       <c r="E45" t="n">
-        <v>10.0</v>
+        <v>55.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -1525,7 +1525,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -1536,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.998877056199994</v>
+        <v>2.9897590560253278</v>
       </c>
       <c r="B46" t="n">
-        <v>4.998669378886947</v>
+        <v>2.989506571490641</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>48.833333333333336</v>
       </c>
       <c r="D46" t="n">
-        <v>23.2375</v>
+        <v>791.0999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>10.0</v>
+        <v>57.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -1557,7 +1557,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -1568,19 +1568,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.998877056199994</v>
+        <v>2.9897590560253278</v>
       </c>
       <c r="B47" t="n">
-        <v>4.998669378886947</v>
+        <v>2.989506571490641</v>
       </c>
       <c r="C47" t="n">
         <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>23.2375</v>
+        <v>791.0999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>10.0</v>
+        <v>57.0</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
@@ -1589,7 +1589,7 @@
         <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -1600,19 +1600,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.998877056199994</v>
+        <v>2.9897590560253278</v>
       </c>
       <c r="B48" t="n">
-        <v>4.998669378886947</v>
+        <v>2.989506571490641</v>
       </c>
       <c r="C48" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>23.2375</v>
+        <v>791.0999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>10.0</v>
+        <v>57.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -1621,7 +1621,7 @@
         <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
@@ -1632,19 +1632,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.998666035461047</v>
+        <v>2.989906146587382</v>
       </c>
       <c r="B49" t="n">
-        <v>4.998461392780659</v>
+        <v>2.989666223589319</v>
       </c>
       <c r="C49" t="n">
-        <v>10.833333333333334</v>
+        <v>148.66666666666666</v>
       </c>
       <c r="D49" t="n">
-        <v>34.07083333333333</v>
+        <v>939.7666666666667</v>
       </c>
       <c r="E49" t="n">
-        <v>11.0</v>
+        <v>60.0</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -1653,7 +1653,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.998666035461047</v>
+        <v>2.989906146587382</v>
       </c>
       <c r="B50" t="n">
-        <v>4.998461392780659</v>
+        <v>2.989666223589319</v>
       </c>
       <c r="C50" t="n">
         <v>0.0</v>
@@ -1676,7 +1676,7 @@
         <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>11.0</v>
+        <v>60.0</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -1685,7 +1685,7 @@
         <v>0.0</v>
       </c>
       <c r="H50" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
@@ -1696,19 +1696,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.998666035461047</v>
+        <v>2.9900115819875905</v>
       </c>
       <c r="B51" t="n">
-        <v>4.998461392780659</v>
+        <v>2.9897765209380385</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0</v>
+        <v>6.05</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>6.05</v>
       </c>
       <c r="E51" t="n">
-        <v>11.0</v>
+        <v>61.0</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -1717,7 +1717,7 @@
         <v>0.0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
@@ -1728,19 +1728,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.998703534958645</v>
+        <v>2.9900115819875905</v>
       </c>
       <c r="B52" t="n">
-        <v>4.998506390061407</v>
+        <v>2.9897765209380385</v>
       </c>
       <c r="C52" t="n">
         <v>0.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0</v>
+        <v>6.05</v>
       </c>
       <c r="E52" t="n">
-        <v>11.0</v>
+        <v>61.0</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -1749,7 +1749,7 @@
         <v>0.0</v>
       </c>
       <c r="H52" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
@@ -1760,19 +1760,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.998703534958645</v>
+        <v>2.9900115819875905</v>
       </c>
       <c r="B53" t="n">
-        <v>4.998506390061407</v>
+        <v>2.9897765209380385</v>
       </c>
       <c r="C53" t="n">
         <v>0.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>6.05</v>
       </c>
       <c r="E53" t="n">
-        <v>11.0</v>
+        <v>61.0</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -1781,7 +1781,7 @@
         <v>0.0</v>
       </c>
       <c r="H53" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -1792,19 +1792,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.998610297007371</v>
+        <v>2.9901459214272212</v>
       </c>
       <c r="B54" t="n">
-        <v>4.998414855517008</v>
+        <v>2.989914899683657</v>
       </c>
       <c r="C54" t="n">
-        <v>1.2374999999999998</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D54" t="n">
-        <v>1.2374999999999998</v>
+        <v>12.716666666666667</v>
       </c>
       <c r="E54" t="n">
-        <v>12.0</v>
+        <v>62.0</v>
       </c>
       <c r="F54" t="n">
         <v>0.0</v>
@@ -1813,7 +1813,7 @@
         <v>0.0</v>
       </c>
       <c r="H54" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I54" t="n">
         <v>0.0</v>
@@ -1824,19 +1824,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.998610297007371</v>
+        <v>2.990169550315175</v>
       </c>
       <c r="B55" t="n">
-        <v>4.998414855517008</v>
+        <v>2.9899478406017566</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0</v>
+        <v>149.99999999999997</v>
       </c>
       <c r="D55" t="n">
-        <v>1.2374999999999998</v>
+        <v>162.71666666666664</v>
       </c>
       <c r="E55" t="n">
-        <v>12.0</v>
+        <v>65.0</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -1845,7 +1845,7 @@
         <v>0.0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
@@ -1856,19 +1856,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.998485116642367</v>
+        <v>2.989842613561642</v>
       </c>
       <c r="B56" t="n">
-        <v>4.998299992352852</v>
+        <v>2.989624096782351</v>
       </c>
       <c r="C56" t="n">
-        <v>32.0</v>
+        <v>172.66666666666666</v>
       </c>
       <c r="D56" t="n">
-        <v>33.2375</v>
+        <v>335.3833333333333</v>
       </c>
       <c r="E56" t="n">
-        <v>14.0</v>
+        <v>67.0</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
@@ -1877,7 +1877,7 @@
         <v>0.0</v>
       </c>
       <c r="H56" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
@@ -1888,19 +1888,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.998485116642367</v>
+        <v>2.9898449684749018</v>
       </c>
       <c r="B57" t="n">
-        <v>4.998299992352852</v>
+        <v>2.9896310673989355</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0</v>
+        <v>126.66666666666666</v>
       </c>
       <c r="D57" t="n">
-        <v>33.2375</v>
+        <v>462.04999999999995</v>
       </c>
       <c r="E57" t="n">
-        <v>14.0</v>
+        <v>68.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -1909,7 +1909,7 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
@@ -1920,19 +1920,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.99862740957095</v>
+        <v>2.990056724121467</v>
       </c>
       <c r="B58" t="n">
-        <v>4.998451783268668</v>
+        <v>2.989847281590238</v>
       </c>
       <c r="C58" t="n">
-        <v>6.05</v>
+        <v>4.0</v>
       </c>
       <c r="D58" t="n">
-        <v>39.2875</v>
+        <v>466.04999999999995</v>
       </c>
       <c r="E58" t="n">
-        <v>15.0</v>
+        <v>69.0</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
@@ -1941,7 +1941,7 @@
         <v>0.0</v>
       </c>
       <c r="H58" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I58" t="n">
         <v>0.0</v>
@@ -1952,19 +1952,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.99862740957095</v>
+        <v>2.990056724121467</v>
       </c>
       <c r="B59" t="n">
-        <v>4.998451783268668</v>
+        <v>2.989847281590238</v>
       </c>
       <c r="C59" t="n">
         <v>0.0</v>
       </c>
       <c r="D59" t="n">
-        <v>39.2875</v>
+        <v>466.04999999999995</v>
       </c>
       <c r="E59" t="n">
-        <v>15.0</v>
+        <v>69.0</v>
       </c>
       <c r="F59" t="n">
         <v>0.0</v>
@@ -1973,7 +1973,7 @@
         <v>0.0</v>
       </c>
       <c r="H59" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I59" t="n">
         <v>0.0</v>
@@ -1984,19 +1984,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.998548619555709</v>
+        <v>2.9901570110636344</v>
       </c>
       <c r="B60" t="n">
-        <v>4.998375852065043</v>
+        <v>2.989951654739574</v>
       </c>
       <c r="C60" t="n">
-        <v>4.5</v>
+        <v>10.0</v>
       </c>
       <c r="D60" t="n">
-        <v>43.7875</v>
+        <v>476.04999999999995</v>
       </c>
       <c r="E60" t="n">
-        <v>16.0</v>
+        <v>70.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -2005,7 +2005,7 @@
         <v>0.0</v>
       </c>
       <c r="H60" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
@@ -2016,19 +2016,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.998421361648994</v>
+        <v>2.9901202489653977</v>
       </c>
       <c r="B61" t="n">
-        <v>4.998261452420864</v>
+        <v>2.989918228853205</v>
       </c>
       <c r="C61" t="n">
-        <v>26.666666666666664</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="D61" t="n">
-        <v>70.45416666666667</v>
+        <v>497.71666666666664</v>
       </c>
       <c r="E61" t="n">
-        <v>18.0</v>
+        <v>71.0</v>
       </c>
       <c r="F61" t="n">
         <v>0.0</v>
@@ -2037,7 +2037,7 @@
         <v>0.0</v>
       </c>
       <c r="H61" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I61" t="n">
         <v>0.0</v>
@@ -2048,19 +2048,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4.998421361648994</v>
+        <v>2.990291356240121</v>
       </c>
       <c r="B62" t="n">
-        <v>4.998261452420864</v>
+        <v>2.990095485139273</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="E62" t="n">
-        <v>18.0</v>
+        <v>72.0</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
@@ -2069,7 +2069,7 @@
         <v>0.0</v>
       </c>
       <c r="H62" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I62" t="n">
         <v>0.0</v>
@@ -2080,19 +2080,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.998421361648994</v>
+        <v>2.990291356240121</v>
       </c>
       <c r="B63" t="n">
-        <v>4.998261452420864</v>
+        <v>2.990095485139273</v>
       </c>
       <c r="C63" t="n">
         <v>0.0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="E63" t="n">
-        <v>18.0</v>
+        <v>72.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -2101,7 +2101,7 @@
         <v>0.0</v>
       </c>
       <c r="H63" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I63" t="n">
         <v>0.0</v>
@@ -2112,19 +2112,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.998421361648994</v>
+        <v>2.990427461835714</v>
       </c>
       <c r="B64" t="n">
-        <v>4.998261452420864</v>
+        <v>2.9902361540976896</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="E64" t="n">
-        <v>18.0</v>
+        <v>74.0</v>
       </c>
       <c r="F64" t="n">
         <v>0.0</v>
@@ -2133,7 +2133,7 @@
         <v>0.0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I64" t="n">
         <v>0.0</v>
@@ -2144,19 +2144,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.9984751759352</v>
+        <v>2.9902994773529628</v>
       </c>
       <c r="B65" t="n">
-        <v>4.998336476243521</v>
+        <v>2.990111002812364</v>
       </c>
       <c r="C65" t="n">
-        <v>1.2374999999999998</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="D65" t="n">
-        <v>1.2374999999999998</v>
+        <v>213.33333333333331</v>
       </c>
       <c r="E65" t="n">
-        <v>19.0</v>
+        <v>76.0</v>
       </c>
       <c r="F65" t="n">
         <v>0.0</v>
@@ -2165,7 +2165,7 @@
         <v>0.0</v>
       </c>
       <c r="H65" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I65" t="n">
         <v>0.0</v>
@@ -2176,19 +2176,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.9984751759352</v>
+        <v>2.9902994773529628</v>
       </c>
       <c r="B66" t="n">
-        <v>4.998336476243521</v>
+        <v>2.990111002812364</v>
       </c>
       <c r="C66" t="n">
         <v>0.0</v>
       </c>
       <c r="D66" t="n">
-        <v>1.2374999999999998</v>
+        <v>213.33333333333331</v>
       </c>
       <c r="E66" t="n">
-        <v>19.0</v>
+        <v>76.0</v>
       </c>
       <c r="F66" t="n">
         <v>0.0</v>
@@ -2197,7 +2197,7 @@
         <v>0.0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I66" t="n">
         <v>0.0</v>
@@ -2208,19 +2208,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.9984751759352</v>
+        <v>2.9901142530688687</v>
       </c>
       <c r="B67" t="n">
-        <v>4.998336476243521</v>
+        <v>2.9899266840715217</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="D67" t="n">
-        <v>1.2374999999999998</v>
+        <v>293.33333333333326</v>
       </c>
       <c r="E67" t="n">
-        <v>19.0</v>
+        <v>78.0</v>
       </c>
       <c r="F67" t="n">
         <v>0.0</v>
@@ -2229,7 +2229,7 @@
         <v>0.0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I67" t="n">
         <v>0.0</v>
@@ -2240,19 +2240,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.998427520811003</v>
+        <v>2.989982352533751</v>
       </c>
       <c r="B68" t="n">
-        <v>4.998291813403267</v>
+        <v>2.9897999270473274</v>
       </c>
       <c r="C68" t="n">
-        <v>4.5</v>
+        <v>51.16666666666667</v>
       </c>
       <c r="D68" t="n">
-        <v>5.7375</v>
+        <v>344.49999999999994</v>
       </c>
       <c r="E68" t="n">
-        <v>20.0</v>
+        <v>81.0</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -2261,7 +2261,7 @@
         <v>0.0</v>
       </c>
       <c r="H68" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I68" t="n">
         <v>0.0</v>
@@ -2272,19 +2272,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.998427520811003</v>
+        <v>2.990240298534678</v>
       </c>
       <c r="B69" t="n">
-        <v>4.998291813403267</v>
+        <v>2.9900642344578676</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0</v>
+        <v>10.666666666666668</v>
       </c>
       <c r="D69" t="n">
-        <v>5.7375</v>
+        <v>355.16666666666663</v>
       </c>
       <c r="E69" t="n">
-        <v>20.0</v>
+        <v>83.0</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
@@ -2293,7 +2293,7 @@
         <v>0.0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I69" t="n">
         <v>0.0</v>
@@ -2304,19 +2304,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.998427520811003</v>
+        <v>2.990240298534678</v>
       </c>
       <c r="B70" t="n">
-        <v>4.998291813403267</v>
+        <v>2.9900642344578676</v>
       </c>
       <c r="C70" t="n">
         <v>0.0</v>
       </c>
       <c r="D70" t="n">
-        <v>5.7375</v>
+        <v>355.16666666666663</v>
       </c>
       <c r="E70" t="n">
-        <v>20.0</v>
+        <v>83.0</v>
       </c>
       <c r="F70" t="n">
         <v>0.0</v>
@@ -2325,7 +2325,7 @@
         <v>0.0</v>
       </c>
       <c r="H70" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I70" t="n">
         <v>0.0</v>
@@ -2336,19 +2336,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4.998427520811003</v>
+        <v>2.990240298534678</v>
       </c>
       <c r="B71" t="n">
-        <v>4.998291813403267</v>
+        <v>2.9900642344578676</v>
       </c>
       <c r="C71" t="n">
         <v>0.0</v>
       </c>
       <c r="D71" t="n">
-        <v>5.7375</v>
+        <v>355.16666666666663</v>
       </c>
       <c r="E71" t="n">
-        <v>20.0</v>
+        <v>83.0</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -2357,7 +2357,7 @@
         <v>0.0</v>
       </c>
       <c r="H71" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I71" t="n">
         <v>0.0</v>
@@ -2368,19 +2368,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.99819387113852</v>
+        <v>2.989777070668144</v>
       </c>
       <c r="B72" t="n">
-        <v>4.998060433659043</v>
+        <v>2.98960608014788</v>
       </c>
       <c r="C72" t="n">
-        <v>132.71666666666667</v>
+        <v>149.66666666666669</v>
       </c>
       <c r="D72" t="n">
-        <v>138.45416666666668</v>
+        <v>504.83333333333326</v>
       </c>
       <c r="E72" t="n">
-        <v>22.0</v>
+        <v>87.0</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -2389,7 +2389,7 @@
         <v>0.0</v>
       </c>
       <c r="H72" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I72" t="n">
         <v>0.0</v>
@@ -2400,19 +2400,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4.998118735791477</v>
+        <v>2.990005077150481</v>
       </c>
       <c r="B73" t="n">
-        <v>4.9979871014091115</v>
+        <v>2.9898399496200074</v>
       </c>
       <c r="C73" t="n">
-        <v>6.05</v>
+        <v>10.0</v>
       </c>
       <c r="D73" t="n">
-        <v>144.50416666666666</v>
+        <v>514.8333333333333</v>
       </c>
       <c r="E73" t="n">
-        <v>23.0</v>
+        <v>88.0</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -2421,7 +2421,7 @@
         <v>0.0</v>
       </c>
       <c r="H73" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I73" t="n">
         <v>0.0</v>
@@ -2432,19 +2432,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4.998118735791477</v>
+        <v>2.989852570191675</v>
       </c>
       <c r="B74" t="n">
-        <v>4.9979871014091115</v>
+        <v>2.989687725926577</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0</v>
+        <v>6.5</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0</v>
+        <v>6.5</v>
       </c>
       <c r="E74" t="n">
-        <v>23.0</v>
+        <v>89.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -2453,7 +2453,7 @@
         <v>0.0</v>
       </c>
       <c r="H74" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I74" t="n">
         <v>0.0</v>
@@ -2464,19 +2464,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4.998118735791477</v>
+        <v>2.98983669416738</v>
       </c>
       <c r="B75" t="n">
-        <v>4.9979871014091115</v>
+        <v>2.9896740099677173</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0</v>
+        <v>126.66666666666666</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0</v>
+        <v>133.16666666666666</v>
       </c>
       <c r="E75" t="n">
-        <v>23.0</v>
+        <v>90.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -2485,7 +2485,7 @@
         <v>0.0</v>
       </c>
       <c r="H75" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I75" t="n">
         <v>0.0</v>
@@ -2496,19 +2496,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.998118735791477</v>
+        <v>2.989906674138937</v>
       </c>
       <c r="B76" t="n">
-        <v>4.9979871014091115</v>
+        <v>2.989750004049363</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0</v>
+        <v>174.83333333333331</v>
       </c>
       <c r="E76" t="n">
-        <v>23.0</v>
+        <v>91.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -2517,7 +2517,7 @@
         <v>0.0</v>
       </c>
       <c r="H76" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I76" t="n">
         <v>0.0</v>
@@ -2528,28 +2528,28 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.998130644548339</v>
+        <v>2.989906674138937</v>
       </c>
       <c r="B77" t="n">
-        <v>4.998002762243253</v>
+        <v>2.989750004049363</v>
       </c>
       <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>174.83333333333331</v>
+      </c>
+      <c r="E77" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H77" t="n">
         <v>4.0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1.0</v>
       </c>
       <c r="I77" t="n">
         <v>0.0</v>
@@ -2560,28 +2560,28 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.998130644548339</v>
+        <v>2.9897967184466787</v>
       </c>
       <c r="B78" t="n">
-        <v>4.998002762243253</v>
+        <v>2.989642413611948</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0</v>
+        <v>14.404166666666667</v>
       </c>
       <c r="D78" t="n">
+        <v>189.2375</v>
+      </c>
+      <c r="E78" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H78" t="n">
         <v>4.0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1.0</v>
       </c>
       <c r="I78" t="n">
         <v>0.0</v>
@@ -2592,19 +2592,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.998113557167677</v>
+        <v>2.9897967184466787</v>
       </c>
       <c r="B79" t="n">
-        <v>4.99798869322625</v>
+        <v>2.989642413611948</v>
       </c>
       <c r="C79" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>26.0</v>
+        <v>189.2375</v>
       </c>
       <c r="E79" t="n">
-        <v>25.0</v>
+        <v>94.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -2613,7 +2613,7 @@
         <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
@@ -2624,19 +2624,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4.998113557167677</v>
+        <v>2.9897967184466787</v>
       </c>
       <c r="B80" t="n">
-        <v>4.99798869322625</v>
+        <v>2.989642413611948</v>
       </c>
       <c r="C80" t="n">
         <v>0.0</v>
       </c>
       <c r="D80" t="n">
-        <v>26.0</v>
+        <v>189.2375</v>
       </c>
       <c r="E80" t="n">
-        <v>25.0</v>
+        <v>94.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -2645,7 +2645,7 @@
         <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I80" t="n">
         <v>0.0</v>
@@ -2656,19 +2656,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.99824738265561</v>
+        <v>2.9897065466555532</v>
       </c>
       <c r="B81" t="n">
-        <v>4.998130553734497</v>
+        <v>2.9895540209259597</v>
       </c>
       <c r="C81" t="n">
-        <v>16.666666666666664</v>
+        <v>136.66666666666666</v>
       </c>
       <c r="D81" t="n">
-        <v>42.666666666666664</v>
+        <v>325.90416666666664</v>
       </c>
       <c r="E81" t="n">
-        <v>26.0</v>
+        <v>96.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -2677,7 +2677,7 @@
         <v>0.0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I81" t="n">
         <v>0.0</v>
@@ -2688,19 +2688,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4.99824738265561</v>
+        <v>2.989775203339025</v>
       </c>
       <c r="B82" t="n">
-        <v>4.998130553734497</v>
+        <v>2.989627210708049</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0</v>
+        <v>5.7375</v>
       </c>
       <c r="D82" t="n">
-        <v>42.666666666666664</v>
+        <v>331.64166666666665</v>
       </c>
       <c r="E82" t="n">
-        <v>26.0</v>
+        <v>98.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -2709,7 +2709,7 @@
         <v>0.0</v>
       </c>
       <c r="H82" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I82" t="n">
         <v>0.0</v>
@@ -2720,19 +2720,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4.99824738265561</v>
+        <v>2.9899636750587333</v>
       </c>
       <c r="B83" t="n">
-        <v>4.998130553734497</v>
+        <v>2.9898183748723195</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D83" t="n">
-        <v>42.666666666666664</v>
+        <v>335.64166666666665</v>
       </c>
       <c r="E83" t="n">
-        <v>26.0</v>
+        <v>99.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -2741,7 +2741,7 @@
         <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I83" t="n">
         <v>0.0</v>
@@ -2752,19 +2752,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4.99824738265561</v>
+        <v>2.9899636750587333</v>
       </c>
       <c r="B84" t="n">
-        <v>4.998130553734497</v>
+        <v>2.9898183748723195</v>
       </c>
       <c r="C84" t="n">
         <v>0.0</v>
       </c>
       <c r="D84" t="n">
-        <v>42.666666666666664</v>
+        <v>335.64166666666665</v>
       </c>
       <c r="E84" t="n">
-        <v>26.0</v>
+        <v>99.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -2773,7 +2773,7 @@
         <v>0.0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I84" t="n">
         <v>0.0</v>
@@ -2784,19 +2784,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4.997931819348305</v>
+        <v>2.989873785597026</v>
       </c>
       <c r="B85" t="n">
-        <v>4.99781704176336</v>
+        <v>2.9897292386819467</v>
       </c>
       <c r="C85" t="n">
-        <v>3.5749999999999997</v>
+        <v>6.5</v>
       </c>
       <c r="D85" t="n">
-        <v>46.24166666666666</v>
+        <v>342.14166666666665</v>
       </c>
       <c r="E85" t="n">
-        <v>27.0</v>
+        <v>100.0</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -2805,7 +2805,7 @@
         <v>0.0</v>
       </c>
       <c r="H85" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I85" t="n">
         <v>0.0</v>
@@ -2816,19 +2816,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4.997931819348305</v>
+        <v>2.9900170927170957</v>
       </c>
       <c r="B86" t="n">
-        <v>4.99781704176336</v>
+        <v>2.9898747307420726</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E86" t="n">
-        <v>27.0</v>
+        <v>101.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -2837,7 +2837,7 @@
         <v>0.0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I86" t="n">
         <v>0.0</v>
@@ -2848,19 +2848,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4.997931819348305</v>
+        <v>2.9900170927170957</v>
       </c>
       <c r="B87" t="n">
-        <v>4.99781704176336</v>
+        <v>2.9898747307420726</v>
       </c>
       <c r="C87" t="n">
         <v>0.0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E87" t="n">
-        <v>27.0</v>
+        <v>101.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -2869,7 +2869,7 @@
         <v>0.0</v>
       </c>
       <c r="H87" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I87" t="n">
         <v>0.0</v>
@@ -2880,19 +2880,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4.997931819348305</v>
+        <v>2.990051527096009</v>
       </c>
       <c r="B88" t="n">
-        <v>4.99781704176336</v>
+        <v>2.9899099661707136</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E88" t="n">
-        <v>27.0</v>
+        <v>102.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -2901,7 +2901,7 @@
         <v>0.0</v>
       </c>
       <c r="H88" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I88" t="n">
         <v>0.0</v>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4.997931819348305</v>
+        <v>2.9893533233906346</v>
       </c>
       <c r="B89" t="n">
-        <v>4.99781704176336</v>
+        <v>2.989212965057879</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0</v>
+        <v>234.16666666666669</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0</v>
+        <v>248.16666666666669</v>
       </c>
       <c r="E89" t="n">
-        <v>27.0</v>
+        <v>107.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -2933,7 +2933,7 @@
         <v>0.0</v>
       </c>
       <c r="H89" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I89" t="n">
         <v>0.0</v>
@@ -2944,19 +2944,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4.997931819348305</v>
+        <v>2.989467179240339</v>
       </c>
       <c r="B90" t="n">
-        <v>4.99781704176336</v>
+        <v>2.989329538481949</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0</v>
+        <v>308.16666666666663</v>
       </c>
       <c r="E90" t="n">
-        <v>27.0</v>
+        <v>108.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -2965,7 +2965,7 @@
         <v>0.0</v>
       </c>
       <c r="H90" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I90" t="n">
         <v>0.0</v>
@@ -2976,28 +2976,28 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4.99816607471819</v>
+        <v>2.9897828647271174</v>
       </c>
       <c r="B91" t="n">
-        <v>4.998061898137917</v>
+        <v>2.989649032848806</v>
       </c>
       <c r="C91" t="n">
         <v>4.0</v>
       </c>
       <c r="D91" t="n">
+        <v>312.16666666666663</v>
+      </c>
+      <c r="E91" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2.0</v>
       </c>
       <c r="I91" t="n">
         <v>0.0</v>
@@ -3008,19 +3008,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4.998165206882891</v>
+        <v>2.9896636661969525</v>
       </c>
       <c r="B92" t="n">
-        <v>4.998062018856229</v>
+        <v>2.9895313803527754</v>
       </c>
       <c r="C92" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D92" t="n">
-        <v>14.0</v>
+        <v>323.16666666666663</v>
       </c>
       <c r="E92" t="n">
-        <v>29.0</v>
+        <v>111.0</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -3029,1708 +3029,12 @@
         <v>0.0</v>
       </c>
       <c r="H92" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I92" t="n">
         <v>0.0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>4.998165206882891</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4.998062018856229</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>4.998165206882891</v>
-      </c>
-      <c r="B94" t="n">
-        <v>4.998062018856229</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>4.998165713714021</v>
-      </c>
-      <c r="B95" t="n">
-        <v>4.9980651095039565</v>
-      </c>
-      <c r="C95" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D95" t="n">
-        <v>20.05</v>
-      </c>
-      <c r="E95" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>4.998120044033182</v>
-      </c>
-      <c r="B96" t="n">
-        <v>4.998022424510232</v>
-      </c>
-      <c r="C96" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D96" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>4.998120044033182</v>
-      </c>
-      <c r="B97" t="n">
-        <v>4.998022424510232</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E97" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>4.998120044033182</v>
-      </c>
-      <c r="B98" t="n">
-        <v>4.998022424510232</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>4.998249756084419</v>
-      </c>
-      <c r="B99" t="n">
-        <v>4.998157878895276</v>
-      </c>
-      <c r="C99" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>4.998249756084419</v>
-      </c>
-      <c r="B100" t="n">
-        <v>4.998157878895276</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>4.998249756084419</v>
-      </c>
-      <c r="B101" t="n">
-        <v>4.998157878895276</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>4.998249756084419</v>
-      </c>
-      <c r="B102" t="n">
-        <v>4.998157878895276</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B103" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C103" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D103" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="E103" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B104" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="E104" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B105" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="E105" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B106" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="E106" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B107" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="E107" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B108" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="E108" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B109" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="E109" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B110" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B111" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B112" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>4.9983061670889635</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4.998225642925159</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>4.9982708697604625</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4.998191117223154</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>4.9982708697604625</v>
-      </c>
-      <c r="B115" t="n">
-        <v>4.998191117223154</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>4.9982708697604625</v>
-      </c>
-      <c r="B116" t="n">
-        <v>4.998191117223154</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>4.9982708697604625</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4.998191117223154</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>4.9982708697604625</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4.998191117223154</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E118" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>4.9982708697604625</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4.998191117223154</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>4.9982708697604625</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4.998191117223154</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E120" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>4.9982708697604625</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4.998191117223154</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E121" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C122" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B128" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B130" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B131" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B132" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B135" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>4.9982673619422195</v>
-      </c>
-      <c r="B136" t="n">
-        <v>4.998190150082944</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>4.99837473467589</v>
-      </c>
-      <c r="B137" t="n">
-        <v>4.998303285015427</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.2374999999999998</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.2374999999999998</v>
-      </c>
-      <c r="E137" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>4.99837473467589</v>
-      </c>
-      <c r="B138" t="n">
-        <v>4.998303285015427</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.2374999999999998</v>
-      </c>
-      <c r="E138" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>4.99837473467589</v>
-      </c>
-      <c r="B139" t="n">
-        <v>4.998303285015427</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.2374999999999998</v>
-      </c>
-      <c r="E139" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>4.99837473467589</v>
-      </c>
-      <c r="B140" t="n">
-        <v>4.998303285015427</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.2374999999999998</v>
-      </c>
-      <c r="E140" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>4.998434550575632</v>
-      </c>
-      <c r="B141" t="n">
-        <v>4.998371735621044</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>5.7375</v>
-      </c>
-      <c r="E141" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>4.998434550575632</v>
-      </c>
-      <c r="B142" t="n">
-        <v>4.998371735621044</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>5.7375</v>
-      </c>
-      <c r="E142" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>4.998434550575632</v>
-      </c>
-      <c r="B143" t="n">
-        <v>4.998371735621044</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>5.7375</v>
-      </c>
-      <c r="E143" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>4.998434550575632</v>
-      </c>
-      <c r="B144" t="n">
-        <v>4.998371735621044</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>5.7375</v>
-      </c>
-      <c r="E144" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>4.998434550575632</v>
-      </c>
-      <c r="B145" t="n">
-        <v>4.998371735621044</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D145" t="n">
-        <v>5.7375</v>
-      </c>
-      <c r="E145" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J145" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -4873,16 +3177,41 @@
           <t>dopvrtn2</t>
         </is>
       </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>verot1</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>verot2</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>verot3</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>vertn1</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>vertn2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.91E-5</v>
+        <v>6.0E-4</v>
       </c>
       <c r="B2" t="n">
-        <v>2.7E-5</v>
+        <v>0.0012</v>
       </c>
       <c r="C2" t="n">
-        <v>1.35E-5</v>
+        <v>6.0E-4</v>
       </c>
       <c r="D2" t="n">
         <v>0.05</v>
@@ -4897,10 +3226,10 @@
         <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002</v>
+        <v>0.0</v>
       </c>
       <c r="J2" t="n">
         <v>0.05</v>
@@ -4909,13 +3238,13 @@
         <v>600.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="M2" t="n">
-        <v>8760.0</v>
+        <v>4380.0</v>
       </c>
       <c r="N2" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="O2" t="n">
         <v>9.0</v>
@@ -4933,7 +3262,7 @@
         <v>2.0</v>
       </c>
       <c r="T2" t="n">
-        <v>8000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="U2" t="n">
         <v>12.0</v>
@@ -4945,10 +3274,25 @@
         <v>12.0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -5018,10 +3362,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -5050,10 +3394,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -5082,10 +3426,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -5114,10 +3458,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -5146,10 +3490,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -5178,10 +3522,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999771689</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -5210,10 +3554,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9999999999818571</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9994560083224834</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -5242,19 +3586,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.999779046224726</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9994477985948554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -5274,19 +3618,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.999779046224726</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9994477985948554</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -5306,19 +3650,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.999779046224726</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9994477985948554</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -5338,19 +3682,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.999779046224726</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9994477985948554</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -5370,19 +3714,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.999779046224726</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999885844</v>
+        <v>0.9994477985948554</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -5402,19 +3746,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9999999999897278</v>
+        <v>0.9990468115980613</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9998972887886258</v>
+        <v>0.9987294858140697</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>22.716666666666665</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>22.716666666666665</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -5434,19 +3778,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975919281636166</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9973148198112677</v>
       </c>
       <c r="C15" t="n">
-        <v>22.0</v>
+        <v>19.249999999999996</v>
       </c>
       <c r="D15" t="n">
-        <v>22.0</v>
+        <v>41.96666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
@@ -5466,19 +3810,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975919281636166</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9973148198112677</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>22.0</v>
+        <v>41.96666666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -5498,19 +3842,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973023012090589</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9971188971338014</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="D17" t="n">
-        <v>22.0</v>
+        <v>52.96666666666666</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -5519,7 +3863,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -5530,19 +3874,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973023012090589</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9971188971338014</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" t="n">
-        <v>22.0</v>
+        <v>52.96666666666666</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -5551,7 +3895,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -5562,19 +3906,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973023012090589</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9971188971338014</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>22.0</v>
+        <v>52.96666666666666</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -5583,7 +3927,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -5594,19 +3938,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973023012090589</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9971188971338014</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>22.0</v>
+        <v>52.96666666666666</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -5615,7 +3959,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -5626,19 +3970,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973023012090589</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9971188971338014</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>22.0</v>
+        <v>52.96666666666666</v>
       </c>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -5647,7 +3991,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -5658,19 +4002,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973023012090589</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9971188971338014</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" t="n">
-        <v>22.0</v>
+        <v>52.96666666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -5679,7 +4023,7 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -5690,19 +4034,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973023012090589</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9971188971338014</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" t="n">
-        <v>22.0</v>
+        <v>52.96666666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -5711,7 +4055,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -5722,19 +4066,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9972696001858826</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9971029171482858</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="D24" t="n">
-        <v>22.0</v>
+        <v>54.20416666666666</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -5743,7 +4087,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -5754,19 +4098,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9972696001858826</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9971029171482858</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>22.0</v>
+        <v>54.20416666666666</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
@@ -5775,7 +4119,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -5786,19 +4130,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9974949397278093</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9973479740347267</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -5807,7 +4151,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -5818,19 +4162,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9974949397278093</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9973479740347267</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -5839,7 +4183,7 @@
         <v>0.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -5850,19 +4194,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9974949397278093</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9973479740347267</v>
       </c>
       <c r="C28" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F28" t="n">
         <v>0.0</v>
@@ -5871,7 +4215,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -5882,19 +4226,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9974949397278093</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9973479740347267</v>
       </c>
       <c r="C29" t="n">
         <v>0.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -5903,7 +4247,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -5914,19 +4258,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9976725625610976</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.997548184115383</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>6.05</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>16.05</v>
       </c>
       <c r="E30" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -5935,7 +4279,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -5946,19 +4290,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9976725625610976</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.997548184115383</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>16.05</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -5967,7 +4311,7 @@
         <v>0.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -5978,19 +4322,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9976725625610976</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.997548184115383</v>
       </c>
       <c r="C32" t="n">
         <v>0.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>16.05</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -5999,7 +4343,7 @@
         <v>0.0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -6010,19 +4354,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9976725625610976</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.997548184115383</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0</v>
+        <v>16.05</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -6031,7 +4375,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
@@ -6042,19 +4386,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9976725625610976</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.997548184115383</v>
       </c>
       <c r="C34" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>16.05</v>
       </c>
       <c r="E34" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -6063,7 +4407,7 @@
         <v>0.0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
@@ -6074,19 +4418,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9976519498034252</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9975367563752421</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0</v>
+        <v>17.2875</v>
       </c>
       <c r="E35" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -6095,7 +4439,7 @@
         <v>0.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -6106,19 +4450,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9976519498034252</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9975367563752421</v>
       </c>
       <c r="C36" t="n">
         <v>0.0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0</v>
+        <v>17.2875</v>
       </c>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -6127,7 +4471,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -6138,19 +4482,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9976519498034252</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9975367563752421</v>
       </c>
       <c r="C37" t="n">
         <v>0.0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0</v>
+        <v>17.2875</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -6159,7 +4503,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -6170,19 +4514,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975215465365893</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.997418544226507</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>13.166666666666668</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0</v>
+        <v>13.166666666666668</v>
       </c>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -6191,7 +4535,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -6202,19 +4546,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975215465365893</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.997418544226507</v>
       </c>
       <c r="C39" t="n">
         <v>0.0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0</v>
+        <v>13.166666666666668</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -6223,7 +4567,7 @@
         <v>0.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
@@ -6234,19 +4578,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975215465365893</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.997418544226507</v>
       </c>
       <c r="C40" t="n">
         <v>0.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>13.166666666666668</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -6255,7 +4599,7 @@
         <v>0.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -6266,19 +4610,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975215465365893</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.997418544226507</v>
       </c>
       <c r="C41" t="n">
         <v>0.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>13.166666666666668</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -6287,7 +4631,7 @@
         <v>0.0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
@@ -6298,19 +4642,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973064644931863</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9972069825520075</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>6.5</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -6319,7 +4663,7 @@
         <v>0.0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -6330,19 +4674,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973047459488548</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9972109876831126</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -6351,7 +4695,7 @@
         <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
@@ -6362,19 +4706,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973047459488548</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9972109876831126</v>
       </c>
       <c r="C44" t="n">
         <v>0.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="E44" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -6383,7 +4727,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
@@ -6394,19 +4738,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9973047459488548</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9972109876831126</v>
       </c>
       <c r="C45" t="n">
         <v>0.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -6415,7 +4759,7 @@
         <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -6426,19 +4770,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975188865062604</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9974407360746749</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>10.833333333333334</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>52.50000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -6447,7 +4791,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -6458,19 +4802,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975188865062604</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9974407360746749</v>
       </c>
       <c r="C47" t="n">
         <v>0.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>52.50000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
@@ -6479,7 +4823,7 @@
         <v>0.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -6490,19 +4834,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975188865062604</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9974407360746749</v>
       </c>
       <c r="C48" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>52.50000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -6511,7 +4855,7 @@
         <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
@@ -6522,19 +4866,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975188865062604</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9974407360746749</v>
       </c>
       <c r="C49" t="n">
         <v>0.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>52.50000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -6543,7 +4887,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
@@ -6554,10 +4898,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975188865062604</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9974407360746749</v>
       </c>
       <c r="C50" t="n">
         <v>0.0</v>
@@ -6566,7 +4910,7 @@
         <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -6575,7 +4919,7 @@
         <v>0.0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
@@ -6586,10 +4930,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9998636767547241</v>
+        <v>0.9975188865062604</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9998364165662591</v>
+        <v>0.9974407360746749</v>
       </c>
       <c r="C51" t="n">
         <v>0.0</v>
@@ -6598,7 +4942,7 @@
         <v>0.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -6607,7 +4951,7 @@
         <v>0.0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
@@ -6618,10 +4962,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9975188865062604</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9974407360746749</v>
       </c>
       <c r="C52" t="n">
         <v>0.0</v>
@@ -6630,7 +4974,7 @@
         <v>0.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -6639,7 +4983,7 @@
         <v>0.0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
@@ -6650,10 +4994,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9975188865062604</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9974407360746749</v>
       </c>
       <c r="C53" t="n">
         <v>0.0</v>
@@ -6662,7 +5006,7 @@
         <v>0.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -6671,7 +5015,7 @@
         <v>0.0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -6682,10 +5026,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9975188865062604</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9974407360746749</v>
       </c>
       <c r="C54" t="n">
         <v>0.0</v>
@@ -6694,7 +5038,7 @@
         <v>0.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F54" t="n">
         <v>0.0</v>
@@ -6703,7 +5047,7 @@
         <v>0.0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I54" t="n">
         <v>0.0</v>
@@ -6714,19 +5058,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9974851200543395</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9974141282585006</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -6735,7 +5079,7 @@
         <v>0.0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
@@ -6746,19 +5090,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9974851200543395</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9974141282585006</v>
       </c>
       <c r="C56" t="n">
         <v>0.0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="E56" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
@@ -6767,7 +5111,7 @@
         <v>0.0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
@@ -6778,19 +5122,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9974851200543395</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9974141282585006</v>
       </c>
       <c r="C57" t="n">
         <v>0.0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -6799,7 +5143,7 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
@@ -6810,19 +5154,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9974851200543395</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9974141282585006</v>
       </c>
       <c r="C58" t="n">
         <v>0.0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
@@ -6831,7 +5175,7 @@
         <v>0.0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I58" t="n">
         <v>0.0</v>
@@ -6842,19 +5186,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9974851200543395</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9974141282585006</v>
       </c>
       <c r="C59" t="n">
         <v>0.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="E59" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="F59" t="n">
         <v>0.0</v>
@@ -6863,7 +5207,7 @@
         <v>0.0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I59" t="n">
         <v>0.0</v>
@@ -6874,19 +5218,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9975854069965072</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9975185014078372</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0</v>
+        <v>143.33333333333331</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -6895,7 +5239,7 @@
         <v>0.0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
@@ -6906,19 +5250,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9975854069965072</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9975185014078372</v>
       </c>
       <c r="C61" t="n">
         <v>0.0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0</v>
+        <v>143.33333333333331</v>
       </c>
       <c r="E61" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="F61" t="n">
         <v>0.0</v>
@@ -6927,7 +5271,7 @@
         <v>0.0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I61" t="n">
         <v>0.0</v>
@@ -6938,10 +5282,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9975854069965072</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9975185014078372</v>
       </c>
       <c r="C62" t="n">
         <v>0.0</v>
@@ -6950,7 +5294,7 @@
         <v>0.0</v>
       </c>
       <c r="E62" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
@@ -6959,7 +5303,7 @@
         <v>0.0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I62" t="n">
         <v>0.0</v>
@@ -6970,10 +5314,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9975854069965072</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9975185014078372</v>
       </c>
       <c r="C63" t="n">
         <v>0.0</v>
@@ -6982,7 +5326,7 @@
         <v>0.0</v>
       </c>
       <c r="E63" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -6991,7 +5335,7 @@
         <v>0.0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I63" t="n">
         <v>0.0</v>
@@ -7002,19 +5346,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9975777814629944</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.997511885323613</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="F64" t="n">
         <v>0.0</v>
@@ -7023,7 +5367,7 @@
         <v>0.0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I64" t="n">
         <v>0.0</v>
@@ -7034,19 +5378,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9974497969802434</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.997386734038287</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0</v>
+        <v>139.99999999999997</v>
       </c>
       <c r="E65" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="F65" t="n">
         <v>0.0</v>
@@ -7055,7 +5399,7 @@
         <v>0.0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I65" t="n">
         <v>0.0</v>
@@ -7066,19 +5410,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9974497969802434</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.997386734038287</v>
       </c>
       <c r="C66" t="n">
         <v>0.0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0</v>
+        <v>139.99999999999997</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="F66" t="n">
         <v>0.0</v>
@@ -7087,7 +5431,7 @@
         <v>0.0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I66" t="n">
         <v>0.0</v>
@@ -7098,19 +5442,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.999901176252322</v>
+        <v>0.997416095796081</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9973532405465946</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0</v>
+        <v>156.66666666666663</v>
       </c>
       <c r="E67" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F67" t="n">
         <v>0.0</v>
@@ -7119,7 +5463,7 @@
         <v>0.0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I67" t="n">
         <v>0.0</v>
@@ -7130,19 +5474,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9972773791724592</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9972156737142603</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0</v>
+        <v>194.66666666666663</v>
       </c>
       <c r="E68" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -7151,7 +5495,7 @@
         <v>0.0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I68" t="n">
         <v>0.0</v>
@@ -7162,19 +5506,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9973832839536022</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9973248574769734</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0</v>
+        <v>201.3333333333333</v>
       </c>
       <c r="E69" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
@@ -7183,7 +5527,7 @@
         <v>0.0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I69" t="n">
         <v>0.0</v>
@@ -7194,19 +5538,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9973832839536022</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9973248574769734</v>
       </c>
       <c r="C70" t="n">
         <v>0.0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0</v>
+        <v>201.3333333333333</v>
       </c>
       <c r="E70" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F70" t="n">
         <v>0.0</v>
@@ -7215,7 +5559,7 @@
         <v>0.0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I70" t="n">
         <v>0.0</v>
@@ -7226,19 +5570,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.999901176252322</v>
+        <v>0.9973832839536022</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9998814138470072</v>
+        <v>0.9973248574769734</v>
       </c>
       <c r="C71" t="n">
         <v>0.0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0</v>
+        <v>201.3333333333333</v>
       </c>
       <c r="E71" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -7247,7 +5591,7 @@
         <v>0.0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I71" t="n">
         <v>0.0</v>
@@ -7258,19 +5602,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9996675265798388</v>
+        <v>0.9973832839536022</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9996500341027834</v>
+        <v>0.9973248574769734</v>
       </c>
       <c r="C72" t="n">
-        <v>132.71666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="D72" t="n">
-        <v>132.71666666666667</v>
+        <v>201.3333333333333</v>
       </c>
       <c r="E72" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -7279,7 +5623,7 @@
         <v>0.0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I72" t="n">
         <v>0.0</v>
@@ -7290,19 +5634,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9996675265798388</v>
+        <v>0.9976112904359394</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9996500341027834</v>
+        <v>0.9975587269491007</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D73" t="n">
-        <v>132.71666666666667</v>
+        <v>211.3333333333333</v>
       </c>
       <c r="E73" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -7311,7 +5655,7 @@
         <v>0.0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I73" t="n">
         <v>0.0</v>
@@ -7322,10 +5666,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9996675265798388</v>
+        <v>0.9976112904359394</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9996500341027834</v>
+        <v>0.9975587269491007</v>
       </c>
       <c r="C74" t="n">
         <v>0.0</v>
@@ -7334,7 +5678,7 @@
         <v>0.0</v>
       </c>
       <c r="E74" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -7343,7 +5687,7 @@
         <v>0.0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I74" t="n">
         <v>0.0</v>
@@ -7354,10 +5698,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9996675265798388</v>
+        <v>0.9976112904359394</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9996500341027834</v>
+        <v>0.9975587269491007</v>
       </c>
       <c r="C75" t="n">
         <v>0.0</v>
@@ -7366,7 +5710,7 @@
         <v>0.0</v>
       </c>
       <c r="E75" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -7375,7 +5719,7 @@
         <v>0.0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I75" t="n">
         <v>0.0</v>
@@ -7386,10 +5730,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9996675265798388</v>
+        <v>0.9976112904359394</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9996500341027834</v>
+        <v>0.9975587269491007</v>
       </c>
       <c r="C76" t="n">
         <v>0.0</v>
@@ -7398,7 +5742,7 @@
         <v>0.0</v>
       </c>
       <c r="E76" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -7407,7 +5751,7 @@
         <v>0.0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I76" t="n">
         <v>0.0</v>
@@ -7418,10 +5762,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9996675265798388</v>
+        <v>0.9976112904359394</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9996500341027834</v>
+        <v>0.9975587269491007</v>
       </c>
       <c r="C77" t="n">
         <v>0.0</v>
@@ -7430,7 +5774,7 @@
         <v>0.0</v>
       </c>
       <c r="E77" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -7439,7 +5783,7 @@
         <v>0.0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I77" t="n">
         <v>0.0</v>
@@ -7450,10 +5794,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9996675265798388</v>
+        <v>0.9976112904359394</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9996500341027834</v>
+        <v>0.9975587269491007</v>
       </c>
       <c r="C78" t="n">
         <v>0.0</v>
@@ -7462,7 +5806,7 @@
         <v>0.0</v>
       </c>
       <c r="E78" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -7471,7 +5815,7 @@
         <v>0.0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I78" t="n">
         <v>0.0</v>
@@ -7482,10 +5826,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9996675265798388</v>
+        <v>0.9976112904359394</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9996500341027834</v>
+        <v>0.9975587269491007</v>
       </c>
       <c r="C79" t="n">
         <v>0.0</v>
@@ -7494,7 +5838,7 @@
         <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -7503,7 +5847,7 @@
         <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
@@ -7514,10 +5858,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9996675265798388</v>
+        <v>0.9976112904359394</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9996500341027834</v>
+        <v>0.9975587269491007</v>
       </c>
       <c r="C80" t="n">
         <v>0.0</v>
@@ -7526,7 +5870,7 @@
         <v>0.0</v>
       </c>
       <c r="E80" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -7535,7 +5879,7 @@
         <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I80" t="n">
         <v>0.0</v>
@@ -7546,19 +5890,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9976307221241832</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9975793407620153</v>
       </c>
       <c r="C81" t="n">
-        <v>16.666666666666664</v>
+        <v>10.0</v>
       </c>
       <c r="D81" t="n">
-        <v>16.666666666666664</v>
+        <v>10.0</v>
       </c>
       <c r="E81" t="n">
-        <v>4.0</v>
+        <v>25.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -7567,7 +5911,7 @@
         <v>0.0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I81" t="n">
         <v>0.0</v>
@@ -7578,19 +5922,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9977279245973545</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997680369247178</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="D82" t="n">
-        <v>16.666666666666664</v>
+        <v>11.2375</v>
       </c>
       <c r="E82" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -7599,7 +5943,7 @@
         <v>0.0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I82" t="n">
         <v>0.0</v>
@@ -7610,19 +5954,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9977279245973545</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997680369247178</v>
       </c>
       <c r="C83" t="n">
         <v>0.0</v>
       </c>
       <c r="D83" t="n">
-        <v>16.666666666666664</v>
+        <v>11.2375</v>
       </c>
       <c r="E83" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -7631,7 +5975,7 @@
         <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I83" t="n">
         <v>0.0</v>
@@ -7642,19 +5986,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9977279245973545</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997680369247178</v>
       </c>
       <c r="C84" t="n">
         <v>0.0</v>
       </c>
       <c r="D84" t="n">
-        <v>16.666666666666664</v>
+        <v>11.2375</v>
       </c>
       <c r="E84" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -7663,7 +6007,7 @@
         <v>0.0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I84" t="n">
         <v>0.0</v>
@@ -7674,19 +6018,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9977279245973545</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997680369247178</v>
       </c>
       <c r="C85" t="n">
         <v>0.0</v>
       </c>
       <c r="D85" t="n">
-        <v>16.666666666666664</v>
+        <v>11.2375</v>
       </c>
       <c r="E85" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -7695,7 +6039,7 @@
         <v>0.0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I85" t="n">
         <v>0.0</v>
@@ -7706,10 +6050,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9977279245973545</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997680369247178</v>
       </c>
       <c r="C86" t="n">
         <v>0.0</v>
@@ -7718,7 +6062,7 @@
         <v>0.0</v>
       </c>
       <c r="E86" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -7727,7 +6071,7 @@
         <v>0.0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I86" t="n">
         <v>0.0</v>
@@ -7738,10 +6082,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9977279245973545</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997680369247178</v>
       </c>
       <c r="C87" t="n">
         <v>0.0</v>
@@ -7750,7 +6094,7 @@
         <v>0.0</v>
       </c>
       <c r="E87" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -7759,7 +6103,7 @@
         <v>0.0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I87" t="n">
         <v>0.0</v>
@@ -7770,10 +6114,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9977279245973545</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997680369247178</v>
       </c>
       <c r="C88" t="n">
         <v>0.0</v>
@@ -7782,7 +6126,7 @@
         <v>0.0</v>
       </c>
       <c r="E88" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -7791,7 +6135,7 @@
         <v>0.0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I88" t="n">
         <v>0.0</v>
@@ -7802,19 +6146,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.997285470427854</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9972382547406785</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0</v>
+        <v>90.83333333333333</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0</v>
+        <v>90.83333333333333</v>
       </c>
       <c r="E89" t="n">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -7823,7 +6167,7 @@
         <v>0.0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I89" t="n">
         <v>0.0</v>
@@ -7834,19 +6178,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9973587523887146</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9973128079107484</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0</v>
+        <v>128.83333333333331</v>
       </c>
       <c r="E90" t="n">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -7855,7 +6199,7 @@
         <v>0.0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I90" t="n">
         <v>0.0</v>
@@ -7866,19 +6210,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9973587523887146</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9973128079107484</v>
       </c>
       <c r="C91" t="n">
         <v>0.0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0</v>
+        <v>128.83333333333331</v>
       </c>
       <c r="E91" t="n">
-        <v>4.0</v>
+        <v>30.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -7887,7 +6231,7 @@
         <v>0.0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I91" t="n">
         <v>0.0</v>
@@ -7898,19 +6242,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972395538585497</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997195155414718</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0</v>
+        <v>139.83333333333331</v>
       </c>
       <c r="E92" t="n">
-        <v>4.0</v>
+        <v>32.0</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -7919,7 +6263,7 @@
         <v>0.0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I92" t="n">
         <v>0.0</v>
@@ -7930,19 +6274,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972395538585497</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997195155414718</v>
       </c>
       <c r="C93" t="n">
         <v>0.0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0</v>
+        <v>139.83333333333331</v>
       </c>
       <c r="E93" t="n">
-        <v>4.0</v>
+        <v>32.0</v>
       </c>
       <c r="F93" t="n">
         <v>0.0</v>
@@ -7951,7 +6295,7 @@
         <v>0.0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I93" t="n">
         <v>0.0</v>
@@ -7962,19 +6306,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972395538585497</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997195155414718</v>
       </c>
       <c r="C94" t="n">
         <v>0.0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0</v>
+        <v>139.83333333333331</v>
       </c>
       <c r="E94" t="n">
-        <v>4.0</v>
+        <v>32.0</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -7983,7 +6327,7 @@
         <v>0.0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I94" t="n">
         <v>0.0</v>
@@ -7994,19 +6338,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9974126554407269</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9973714765525026</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0</v>
+        <v>143.83333333333331</v>
       </c>
       <c r="E95" t="n">
-        <v>4.0</v>
+        <v>33.0</v>
       </c>
       <c r="F95" t="n">
         <v>0.0</v>
@@ -8015,7 +6359,7 @@
         <v>0.0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I95" t="n">
         <v>0.0</v>
@@ -8026,19 +6370,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9974126554407269</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9973714765525026</v>
       </c>
       <c r="C96" t="n">
         <v>0.0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0</v>
+        <v>143.83333333333331</v>
       </c>
       <c r="E96" t="n">
-        <v>4.0</v>
+        <v>33.0</v>
       </c>
       <c r="F96" t="n">
         <v>0.0</v>
@@ -8047,7 +6391,7 @@
         <v>0.0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I96" t="n">
         <v>0.0</v>
@@ -8058,19 +6402,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9974126554407269</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9973714765525026</v>
       </c>
       <c r="C97" t="n">
         <v>0.0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0</v>
+        <v>143.83333333333331</v>
       </c>
       <c r="E97" t="n">
-        <v>4.0</v>
+        <v>33.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -8079,7 +6423,7 @@
         <v>0.0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I97" t="n">
         <v>0.0</v>
@@ -8090,10 +6434,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9974126554407269</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9973714765525026</v>
       </c>
       <c r="C98" t="n">
         <v>0.0</v>
@@ -8102,7 +6446,7 @@
         <v>0.0</v>
       </c>
       <c r="E98" t="n">
-        <v>4.0</v>
+        <v>33.0</v>
       </c>
       <c r="F98" t="n">
         <v>0.0</v>
@@ -8111,7 +6455,7 @@
         <v>0.0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I98" t="n">
         <v>0.0</v>
@@ -8122,10 +6466,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9974126554407269</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9973714765525026</v>
       </c>
       <c r="C99" t="n">
         <v>0.0</v>
@@ -8134,7 +6478,7 @@
         <v>0.0</v>
       </c>
       <c r="E99" t="n">
-        <v>4.0</v>
+        <v>33.0</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -8143,7 +6487,7 @@
         <v>0.0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I99" t="n">
         <v>0.0</v>
@@ -8154,10 +6498,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9974126554407269</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9973714765525026</v>
       </c>
       <c r="C100" t="n">
         <v>0.0</v>
@@ -8166,7 +6510,7 @@
         <v>0.0</v>
       </c>
       <c r="E100" t="n">
-        <v>4.0</v>
+        <v>33.0</v>
       </c>
       <c r="F100" t="n">
         <v>0.0</v>
@@ -8175,7 +6519,7 @@
         <v>0.0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I100" t="n">
         <v>0.0</v>
@@ -8186,10 +6530,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9974126554407269</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9973714765525026</v>
       </c>
       <c r="C101" t="n">
         <v>0.0</v>
@@ -8198,7 +6542,7 @@
         <v>0.0</v>
       </c>
       <c r="E101" t="n">
-        <v>4.0</v>
+        <v>33.0</v>
       </c>
       <c r="F101" t="n">
         <v>0.0</v>
@@ -8207,7 +6551,7 @@
         <v>0.0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I101" t="n">
         <v>0.0</v>
@@ -8218,19 +6562,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.997456701525603</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9974172704921149</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="E102" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
@@ -8239,7 +6583,7 @@
         <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I102" t="n">
         <v>0.0</v>
@@ -8250,19 +6594,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.997456701525603</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9974172704921149</v>
       </c>
       <c r="C103" t="n">
         <v>0.0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="E103" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
       <c r="F103" t="n">
         <v>0.0</v>
@@ -8271,7 +6615,7 @@
         <v>0.0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I103" t="n">
         <v>0.0</v>
@@ -8282,19 +6626,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.997456701525603</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9974172704921149</v>
       </c>
       <c r="C104" t="n">
         <v>0.0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="E104" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -8303,7 +6647,7 @@
         <v>0.0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I104" t="n">
         <v>0.0</v>
@@ -8314,19 +6658,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.997456701525603</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9974172704921149</v>
       </c>
       <c r="C105" t="n">
         <v>0.0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="E105" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
       <c r="F105" t="n">
         <v>0.0</v>
@@ -8335,7 +6679,7 @@
         <v>0.0</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I105" t="n">
         <v>0.0</v>
@@ -8346,19 +6690,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.997456701525603</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9974172704921149</v>
       </c>
       <c r="C106" t="n">
         <v>0.0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="E106" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
       <c r="F106" t="n">
         <v>0.0</v>
@@ -8367,7 +6711,7 @@
         <v>0.0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I106" t="n">
         <v>0.0</v>
@@ -8378,19 +6722,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972957805107977</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997257437340231</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0</v>
+        <v>246.66666666666669</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0</v>
+        <v>247.9041666666667</v>
       </c>
       <c r="E107" t="n">
-        <v>4.0</v>
+        <v>35.0</v>
       </c>
       <c r="F107" t="n">
         <v>0.0</v>
@@ -8399,7 +6743,7 @@
         <v>0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I107" t="n">
         <v>0.0</v>
@@ -8410,19 +6754,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972957805107977</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997257437340231</v>
       </c>
       <c r="C108" t="n">
         <v>0.0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0</v>
+        <v>247.9041666666667</v>
       </c>
       <c r="E108" t="n">
-        <v>4.0</v>
+        <v>35.0</v>
       </c>
       <c r="F108" t="n">
         <v>0.0</v>
@@ -8431,7 +6775,7 @@
         <v>0.0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I108" t="n">
         <v>0.0</v>
@@ -8442,19 +6786,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972957805107977</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997257437340231</v>
       </c>
       <c r="C109" t="n">
         <v>0.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0</v>
+        <v>247.9041666666667</v>
       </c>
       <c r="E109" t="n">
-        <v>4.0</v>
+        <v>35.0</v>
       </c>
       <c r="F109" t="n">
         <v>0.0</v>
@@ -8463,7 +6807,7 @@
         <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I109" t="n">
         <v>0.0</v>
@@ -8474,19 +6818,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972894428488092</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9972513709215738</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E110" t="n">
-        <v>4.0</v>
+        <v>36.0</v>
       </c>
       <c r="F110" t="n">
         <v>0.0</v>
@@ -8495,7 +6839,7 @@
         <v>0.0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I110" t="n">
         <v>0.0</v>
@@ -8506,19 +6850,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972069658140762</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9971693289488917</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0</v>
+        <v>6.5</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0</v>
+        <v>16.5</v>
       </c>
       <c r="E111" t="n">
-        <v>4.0</v>
+        <v>37.0</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -8527,7 +6871,7 @@
         <v>0.0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I111" t="n">
         <v>0.0</v>
@@ -8538,19 +6882,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972492501617004</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9972125124542518</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0</v>
+        <v>33.166666666666664</v>
       </c>
       <c r="E112" t="n">
-        <v>4.0</v>
+        <v>38.0</v>
       </c>
       <c r="F112" t="n">
         <v>0.0</v>
@@ -8559,7 +6903,7 @@
         <v>0.0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I112" t="n">
         <v>0.0</v>
@@ -8570,19 +6914,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972492501617004</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9972125124542518</v>
       </c>
       <c r="C113" t="n">
         <v>0.0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0</v>
+        <v>33.166666666666664</v>
       </c>
       <c r="E113" t="n">
-        <v>4.0</v>
+        <v>38.0</v>
       </c>
       <c r="F113" t="n">
         <v>0.0</v>
@@ -8591,7 +6935,7 @@
         <v>0.0</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I113" t="n">
         <v>0.0</v>
@@ -8602,19 +6946,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972492501617004</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9972125124542518</v>
       </c>
       <c r="C114" t="n">
         <v>0.0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0</v>
+        <v>33.166666666666664</v>
       </c>
       <c r="E114" t="n">
-        <v>4.0</v>
+        <v>38.0</v>
       </c>
       <c r="F114" t="n">
         <v>0.0</v>
@@ -8623,7 +6967,7 @@
         <v>0.0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I114" t="n">
         <v>0.0</v>
@@ -8634,19 +6978,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9972275792218362</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9971913613085347</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0</v>
+        <v>4.5</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0</v>
+        <v>37.666666666666664</v>
       </c>
       <c r="E115" t="n">
-        <v>4.0</v>
+        <v>39.0</v>
       </c>
       <c r="F115" t="n">
         <v>0.0</v>
@@ -8655,7 +6999,7 @@
         <v>0.0</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I115" t="n">
         <v>0.0</v>
@@ -8666,19 +7010,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9971840123066621</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.997148012863951</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0</v>
+        <v>6.05</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0</v>
+        <v>43.71666666666666</v>
       </c>
       <c r="E116" t="n">
-        <v>4.0</v>
+        <v>40.0</v>
       </c>
       <c r="F116" t="n">
         <v>0.0</v>
@@ -8687,7 +7031,7 @@
         <v>0.0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I116" t="n">
         <v>0.0</v>
@@ -8698,19 +7042,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9971113697977134</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9970758119791546</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0</v>
+        <v>81.71666666666667</v>
       </c>
       <c r="E117" t="n">
-        <v>4.0</v>
+        <v>41.0</v>
       </c>
       <c r="F117" t="n">
         <v>0.0</v>
@@ -8719,7 +7063,7 @@
         <v>0.0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I117" t="n">
         <v>0.0</v>
@@ -8730,19 +7074,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9971430869912894</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9971082055455462</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0</v>
+        <v>98.38333333333333</v>
       </c>
       <c r="E118" t="n">
-        <v>4.0</v>
+        <v>42.0</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -8751,7 +7095,7 @@
         <v>0.0</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I118" t="n">
         <v>0.0</v>
@@ -8762,19 +7106,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9971430869912894</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9971082055455462</v>
       </c>
       <c r="C119" t="n">
         <v>0.0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0</v>
+        <v>98.38333333333333</v>
       </c>
       <c r="E119" t="n">
-        <v>4.0</v>
+        <v>42.0</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
@@ -8783,7 +7127,7 @@
         <v>0.0</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I119" t="n">
         <v>0.0</v>
@@ -8794,19 +7138,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.9971430869912894</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9971082055455462</v>
       </c>
       <c r="C120" t="n">
         <v>0.0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0</v>
+        <v>98.38333333333333</v>
       </c>
       <c r="E120" t="n">
-        <v>4.0</v>
+        <v>42.0</v>
       </c>
       <c r="F120" t="n">
         <v>0.0</v>
@@ -8815,7 +7159,7 @@
         <v>0.0</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I120" t="n">
         <v>0.0</v>
@@ -8826,19 +7170,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.9998013520677721</v>
+        <v>0.997249716384504</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9997918946110304</v>
+        <v>0.9972164051139901</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0</v>
+        <v>102.38333333333333</v>
       </c>
       <c r="E121" t="n">
-        <v>4.0</v>
+        <v>43.0</v>
       </c>
       <c r="F121" t="n">
         <v>0.0</v>
@@ -8847,780 +7191,12 @@
         <v>0.0</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I121" t="n">
         <v>0.0</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E144" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>0.9998013520677721</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.9997918946110304</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J145" t="n">
         <v>0.0</v>
       </c>
     </row>
